--- a/Data/WeatherArray.xlsx
+++ b/Data/WeatherArray.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,34 +367,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Num</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Num</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>prov</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>prov</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>wd</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>null</t>
@@ -402,22 +404,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>null℃</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>null</t>
@@ -425,22 +424,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>null℃</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>null</t>
@@ -448,22 +444,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>null℃</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>null</t>
@@ -471,22 +464,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>null℃</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>null</t>
@@ -494,22 +484,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>null℃</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>null</t>
@@ -517,22 +504,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>null℃</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>null</t>
@@ -540,22 +524,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>null℃</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>null</t>
@@ -563,22 +544,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>null℃</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>null</t>
@@ -586,25 +564,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>null℃</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/WeatherArray.xlsx
+++ b/Data/WeatherArray.xlsx
@@ -394,17 +394,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>三亚</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>null℃</t>
+          <t>24℃</t>
         </is>
       </c>
     </row>
@@ -414,17 +414,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>东方</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>null℃</t>
+          <t>22℃</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>昌江</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>null℃</t>
+          <t>22℃</t>
         </is>
       </c>
     </row>
@@ -454,17 +454,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>文昌</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>null℃</t>
+          <t>22℃</t>
         </is>
       </c>
     </row>
@@ -474,17 +474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>澄迈</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>null℃</t>
+          <t>21℃</t>
         </is>
       </c>
     </row>
@@ -494,17 +494,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>定安</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>null℃</t>
+          <t>21℃</t>
         </is>
       </c>
     </row>
@@ -514,17 +514,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>琼海</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>null℃</t>
+          <t>21℃</t>
         </is>
       </c>
     </row>
@@ -534,17 +534,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>五指山</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>null℃</t>
+          <t>21℃</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>元阳</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>null℃</t>
+          <t>20℃</t>
         </is>
       </c>
     </row>

--- a/Data/WeatherArray.xlsx
+++ b/Data/WeatherArray.xlsx
@@ -394,17 +394,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>三亚</t>
+          <t>孟连</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24℃</t>
+          <t>27℃</t>
         </is>
       </c>
     </row>
@@ -414,17 +414,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>东方</t>
+          <t>双江</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22℃</t>
+          <t>27℃</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>昌江</t>
+          <t>勐腊</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22℃</t>
+          <t>27℃</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>文昌</t>
+          <t>三亚</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -464,7 +464,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22℃</t>
+          <t>27℃</t>
         </is>
       </c>
     </row>
@@ -474,17 +474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>澄迈</t>
+          <t>攀枝花</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21℃</t>
+          <t>26℃</t>
         </is>
       </c>
     </row>
@@ -494,17 +494,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>定安</t>
+          <t>米易</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21℃</t>
+          <t>26℃</t>
         </is>
       </c>
     </row>
@@ -514,17 +514,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>琼海</t>
+          <t>盐边</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21℃</t>
+          <t>26℃</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>五指山</t>
+          <t>保亭</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21℃</t>
+          <t>26℃</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>元阳</t>
+          <t>仁和</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20℃</t>
+          <t>25℃</t>
         </is>
       </c>
     </row>
